--- a/results_it/late_February_corr_ranking.xlsx
+++ b/results_it/late_February_corr_ranking.xlsx
@@ -453,560 +453,560 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_31-60days_avg</t>
+          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2738719658532959</v>
+        <v>0.4226041079067676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1668673954912418</v>
+        <v>0.01786328215135155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_31-60days_avg</t>
+          <t>total_precip_mm_8-14days_avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2645341240177004</v>
+        <v>0.3907235904529536</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1823951963985333</v>
+        <v>0.02975915461017488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>total_precip_mm_14days_sum</t>
+          <t>min_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2590084773000705</v>
+        <v>0.3786525173406768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.192043076057049</v>
+        <v>0.03568103123410096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_15-30days_avg</t>
+          <t>min_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2585592476652899</v>
+        <v>0.3729899502601923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1928426177159895</v>
+        <v>0.03876936680025289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_15-30days_avg</t>
+          <t>mean_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2491480079530525</v>
+        <v>0.3599723656443465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2101227768044076</v>
+        <v>0.04668716553785874</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>max_temp_C_8-14days_avg</t>
+          <t>mean_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2432348339297232</v>
+        <v>0.3288547339488213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2215022331619526</v>
+        <v>0.07086219698490939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>min_temp_C_15-30days_avg</t>
+          <t>mean_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2410700022191268</v>
+        <v>0.3273888354131214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2257699517792132</v>
+        <v>0.07220383816648746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
+          <t>min_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2392876533906672</v>
+        <v>0.3221822711149052</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2293247256185269</v>
+        <v>0.07712882005617529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_60days_sum</t>
+          <t>mean_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2265937386487369</v>
+        <v>0.3193494029991365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2557212267891837</v>
+        <v>0.07991521453142682</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_8-14days_avg</t>
+          <t>mean_vapor_pressure_hPa_14days_sum</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2133571197482474</v>
+        <v>0.3163083175845282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2852763827371895</v>
+        <v>0.08299195174521465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_30days_sum</t>
+          <t>max_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2037097146950977</v>
+        <v>0.3089336051241273</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3081284918600883</v>
+        <v>0.09083025629582586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mean_temp_C_8-14days_avg</t>
+          <t>min_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2031110537035996</v>
+        <v>0.3034502522319912</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3095829652169443</v>
+        <v>0.09701459734439798</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>total_precip_mm_1-7days_avg</t>
+          <t>max_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2024590057299671</v>
+        <v>0.2892063637859325</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3111719787355991</v>
+        <v>0.1145665677183866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>total_precip_mm_7days_sum</t>
+          <t>max_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2024590057299671</v>
+        <v>0.2885721612204964</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3111719787355991</v>
+        <v>0.1153996492736982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>max_temp_C_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_30days_sum</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1928102540292558</v>
+        <v>0.2772759106408381</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3352734470320963</v>
+        <v>0.1310042361393979</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_60days_sum</t>
+          <t>max_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1885648202578736</v>
+        <v>0.2733643449930736</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3462256163039528</v>
+        <v>0.1367531801591621</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_15-30days_avg</t>
+          <t>total_precip_mm_14days_sum</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1822096671499412</v>
+        <v>0.2507047914904308</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3630144930647681</v>
+        <v>0.1737208603718649</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>total_precip_mm_8-14days_avg</t>
+          <t>mean_vapor_pressure_hPa_60days_sum</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1815090592368811</v>
+        <v>0.2439365163795593</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3648941195223644</v>
+        <v>0.1860186878626693</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_30days_sum</t>
+          <t>total_precip_mm_30days_sum</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1718208462813075</v>
+        <v>0.2326361020678354</v>
       </c>
       <c r="C20" t="n">
-        <v>0.391466915150571</v>
+        <v>0.2078860744857214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>max_temp_C_31-60days_avg</t>
+          <t>min_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1660721522455334</v>
+        <v>0.2225316505697503</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4077412652855877</v>
+        <v>0.2288808720056036</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>min_temp_C_60days_sum</t>
+          <t>min_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1623071506227033</v>
+        <v>0.2225316505697503</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4186015925450914</v>
+        <v>0.2288808720056036</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>max_temp_C_60days_sum</t>
+          <t>max_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.160053212965839</v>
+        <v>0.2167933285644217</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4251788470140998</v>
+        <v>0.2414190479252149</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_60days_sum</t>
+          <t>mean_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1527294473373105</v>
+        <v>0.2142746054498031</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4469368626589467</v>
+        <v>0.2470643059762241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>min_temp_C_8-14days_avg</t>
+          <t>mean_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1449601039634723</v>
+        <v>0.1960173322164042</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4706530863065757</v>
+        <v>0.2905917766515477</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>total_precip_mm_30days_sum</t>
+          <t>max_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1391487756351911</v>
+        <v>0.1946686844280247</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4888091096147319</v>
+        <v>0.2939895111621663</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>min_temp_C_30days_sum</t>
+          <t>mean_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.137250751851202</v>
+        <v>-0.1866748455815409</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4948147271771471</v>
+        <v>0.314644526151059</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_1-7days_avg</t>
+          <t>max_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.1339662756542282</v>
+        <v>0.1858357317955845</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5052940086808075</v>
+        <v>0.3168638071896498</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_14days_sum</t>
+          <t>max_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.132565295642674</v>
+        <v>0.1858357317955845</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5097970243260582</v>
+        <v>0.3168638071896498</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>total_precip_mm_31-60days_avg</t>
+          <t>mean_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1293729477276529</v>
+        <v>0.1767772184094251</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5201309242378828</v>
+        <v>0.3414380289750275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>max_temp_C_30days_sum</t>
+          <t>mean_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1262001256090279</v>
+        <v>0.1767772184094251</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5305010179947861</v>
+        <v>0.3414380289750275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mean_temp_C_14days_sum</t>
+          <t>mean_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1252038673161249</v>
+        <v>-0.1731615109979995</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5337773926873804</v>
+        <v>0.3515606301342459</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_7days_sum</t>
+          <t>mean_humidity_pct_8-14days_avg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1185473262790041</v>
+        <v>0.1706515239491126</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5559115349543382</v>
+        <v>0.358692331423597</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mean_temp_C_15-30days_avg</t>
+          <t>mean_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1184086676697816</v>
+        <v>-0.1604640818436756</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5563770267512116</v>
+        <v>0.388511918940259</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_30days_sum</t>
+          <t>sunshine_duration_h_15-30days_avg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1148879072673223</v>
+        <v>0.1598762729360296</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5682559401904174</v>
+        <v>0.3902749394040324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>min_temp_C_31-60days_avg</t>
+          <t>min_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.1058909862603505</v>
+        <v>0.1542624798856536</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5991163941634114</v>
+        <v>0.4073431543359863</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_8-14days_avg</t>
+          <t>sunshine_duration_h_8-14days_avg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1053025114523013</v>
+        <v>-0.1494617881359859</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6011595074409091</v>
+        <v>0.4222676227250241</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_60days_sum</t>
+          <t>total_precip_mm_31-60days_avg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.104750495254432</v>
+        <v>-0.1476193364060323</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6030787196280004</v>
+        <v>0.4280750038428278</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>max_temp_C_1-7days_avg</t>
+          <t>min_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1030886089300919</v>
+        <v>0.1426326315452221</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6088722008379384</v>
+        <v>0.444011818669931</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>max_temp_C_7days_sum</t>
+          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1030886089300918</v>
+        <v>0.1414365023539313</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6088722008379384</v>
+        <v>0.4478815932412301</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_1-7days_avg</t>
+          <t>mean_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.09881602613270613</v>
+        <v>-0.1381103899535576</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6238722250714276</v>
+        <v>0.458737188867803</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_7days_sum</t>
+          <t>max_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.09881602613270608</v>
+        <v>-0.1208864541337799</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6238722250714276</v>
+        <v>0.5171205115289116</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_30days_sum</t>
+          <t>mean_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.09869297798296971</v>
+        <v>-0.1198640382300937</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6243064320325322</v>
+        <v>0.5206969103344902</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_1-7days_avg</t>
+          <t>max_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.09042464753323633</v>
+        <v>0.1159614786615145</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6537577906859026</v>
+        <v>0.5344580105041878</v>
       </c>
     </row>
     <row r="45">
@@ -1016,374 +1016,374 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.07949800038793572</v>
+        <v>0.1100908980582007</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6934614400947069</v>
+        <v>0.5554804849468414</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>total_precip_mm_15-30days_avg</t>
+          <t>max_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.07854503464470118</v>
+        <v>-0.1093880450647148</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6969637978688937</v>
+        <v>0.5580227759631052</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_7days_sum</t>
+          <t>sunshine_duration_h_14days_sum</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.07676757519233531</v>
+        <v>-0.1045097205148827</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7035125263792164</v>
+        <v>0.575814197649935</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_31-60days_avg</t>
+          <t>mean_humidity_pct_30days_sum</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.07457923924027478</v>
+        <v>0.1034299920372502</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7116034505279948</v>
+        <v>0.579786001557712</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_8-14days_avg</t>
+          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.06909208803145722</v>
+        <v>0.09750816959559275</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7320238581671077</v>
+        <v>0.6017826527786044</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>min_temp_C_1-7days_avg</t>
+          <t>mean_vapor_pressure_hPa_7days_sum</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.06435184541069583</v>
+        <v>0.09750816959559271</v>
       </c>
       <c r="C50" t="n">
-        <v>0.749809788363358</v>
+        <v>0.6017826527786061</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>min_temp_C_7days_sum</t>
+          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.0643518454106958</v>
+        <v>0.09589986133071381</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7498097883633588</v>
+        <v>0.6078176577368741</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_1-7days_avg</t>
+          <t>mean_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0633610039969426</v>
+        <v>-0.08657233832439692</v>
       </c>
       <c r="C52" t="n">
-        <v>0.75354370908262</v>
+        <v>0.6433088450342782</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_7days_sum</t>
+          <t>total_precip_mm_60days_sum</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.06336100399694254</v>
+        <v>0.08484043452442998</v>
       </c>
       <c r="C53" t="n">
-        <v>0.75354370908262</v>
+        <v>0.6499875538217283</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_14days_sum</t>
+          <t>mean_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.06096368586036355</v>
+        <v>0.08264308963196706</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7626001021633977</v>
+        <v>0.6584995638636261</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
+          <t>mean_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.05782019234551729</v>
+        <v>-0.07933795522545593</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7745215408423473</v>
+        <v>0.671381936450838</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_14days_sum</t>
+          <t>mean_humidity_pct_15-30days_avg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.05048016066814102</v>
+        <v>0.06963978300218077</v>
       </c>
       <c r="C56" t="n">
-        <v>0.802548685181647</v>
+        <v>0.7097018190208447</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>min_temp_C_14days_sum</t>
+          <t>max_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.04930776508611229</v>
+        <v>-0.06096371191153473</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8070484865349901</v>
+        <v>0.7445861945360619</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
+          <t>total_precip_mm_15-30days_avg</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.046882702286787</v>
+        <v>0.05929070668059516</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8163750742181778</v>
+        <v>0.7513728721686275</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_30days_sum</t>
+          <t>mean_humidity_pct_31-60days_avg</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.04326011498988211</v>
+        <v>-0.05898785443744969</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8303524558335795</v>
+        <v>0.7526033823307134</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_14days_sum</t>
+          <t>max_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.03001208025673852</v>
+        <v>-0.04552020362498206</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8818682822558871</v>
+        <v>0.8078841804405926</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mean_temp_C_31-60days_avg</t>
+          <t>max_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02943102974506473</v>
+        <v>-0.04496290776855896</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8841400722459519</v>
+        <v>0.8101934196694264</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_31-60days_avg</t>
+          <t>max_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02660553373227916</v>
+        <v>-0.04291086964770262</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8951996221252503</v>
+        <v>0.8187097054248363</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mean_temp_C_60days_sum</t>
+          <t>mean_humidity_pct_60days_sum</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02007870128903056</v>
+        <v>0.04255165882703663</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9208167979435439</v>
+        <v>0.8202026025563843</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>max_temp_C_15-30days_avg</t>
+          <t>total_precip_mm_7days_sum</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01914427534892257</v>
+        <v>-0.04035295406411166</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9244912411536931</v>
+        <v>0.8293537922362837</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mean_temp_C_1-7days_avg</t>
+          <t>total_precip_mm_1-7days_avg</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01485323725948863</v>
+        <v>-0.04035295406411163</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9413831859043361</v>
+        <v>0.8293537922362837</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mean_temp_C_7days_sum</t>
+          <t>sunshine_duration_h_30days_sum</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01485323725948863</v>
+        <v>0.03171122741251205</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9413831859043361</v>
+        <v>0.8655234290306211</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
+          <t>sunshine_duration_h_7days_sum</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.009974521622140534</v>
+        <v>-0.03164842848193203</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9606182744718125</v>
+        <v>0.8657873421775391</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_7days_sum</t>
+          <t>sunshine_duration_h_1-7days_avg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.009974521622140502</v>
+        <v>-0.03164842848193203</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9606182744718125</v>
+        <v>0.8657873421775391</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>total_precip_mm_60days_sum</t>
+          <t>sunshine_duration_h_60days_sum</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.009828362938056607</v>
+        <v>0.0292474744369791</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9611949124282141</v>
+        <v>0.8758877526168467</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_8-14days_avg</t>
+          <t>mean_humidity_pct_7days_sum</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.008021741012397301</v>
+        <v>0.02876768883003061</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9683240393366848</v>
+        <v>0.8779084792758127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mean_temp_C_30days_sum</t>
+          <t>mean_humidity_pct_1-7days_avg</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.005658965632266691</v>
+        <v>0.02876768883003056</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9776513125338641</v>
+        <v>0.8779084792758127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_15-30days_avg</t>
+          <t>max_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.004056413656357801</v>
+        <v>-0.01497669014104127</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9839792397878018</v>
+        <v>0.9362656563245235</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_60days_sum</t>
+          <t>sunshine_duration_h_31-60days_avg</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.00271209525469533</v>
+        <v>0.005728147206517794</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9892882366236546</v>
+        <v>0.9756024659851877</v>
       </c>
     </row>
   </sheetData>
